--- a/biology/Zoologie/Dakotadon/Dakotadon.xlsx
+++ b/biology/Zoologie/Dakotadon/Dakotadon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dakotadon lakotaensis
-Dakotadon (qui signifie « dent du Dakota ») est un genre de dinosaures éteint d'iguanodontes de la formation Lakota[1] du Crétacé inférieur de l'âge barrémien du Dakota du Sud, aux États-Unis, connu à partir d'un crâne partiel. Il a été décrit pour la première fois en 1989 sous le nom d’Iguanodon lakotaensis, par David B. Weishampel et Philip Reese Bjork (d)[2]. Son affectation a été controversée. Certains chercheurs suggèrent qu’Iguanodon lakotaensis était plus basal qu’Iguanodon bernissartensis, et lié à Theiophytalia[3], mais David Norman a suggéré que c'était un synonyme d’Iguanodon bernissartensis[4]. Gregory S. Paul, travaillant sur une révision des espèces d'iguanodontes, a donné à I. lakotaensis son propre genre (Dakotadon) en 2008[5]. Confirmé par A. T. McDonald et al. (2010)[6],[7],[8],[9] et F. J. Verdú et al. (2021)[10],[11]. Le genre ne contient qu'une espèce, Dakotadon lakotaensis.
+Dakotadon (qui signifie « dent du Dakota ») est un genre de dinosaures éteint d'iguanodontes de la formation Lakota du Crétacé inférieur de l'âge barrémien du Dakota du Sud, aux États-Unis, connu à partir d'un crâne partiel. Il a été décrit pour la première fois en 1989 sous le nom d’Iguanodon lakotaensis, par David B. Weishampel et Philip Reese Bjork (d). Son affectation a été controversée. Certains chercheurs suggèrent qu’Iguanodon lakotaensis était plus basal qu’Iguanodon bernissartensis, et lié à Theiophytalia, mais David Norman a suggéré que c'était un synonyme d’Iguanodon bernissartensis. Gregory S. Paul, travaillant sur une révision des espèces d'iguanodontes, a donné à I. lakotaensis son propre genre (Dakotadon) en 2008. Confirmé par A. T. McDonald et al. (2010) et F. J. Verdú et al. (2021),. Le genre ne contient qu'une espèce, Dakotadon lakotaensis.
 </t>
         </is>
       </c>
